--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,280 +40,271 @@
     <t>name</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>ze</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooke</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>tea</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>long</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -680,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4573643410852713</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -820,16 +811,16 @@
         <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2108108108108108</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,123 +858,219 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>0.8761609907120743</v>
+      </c>
+      <c r="L5">
+        <v>566</v>
+      </c>
+      <c r="M5">
+        <v>566</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>0.8405797101449275</v>
+      </c>
+      <c r="L7">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>58</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>148</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L5">
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <v>43</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>0.8840579710144928</v>
-      </c>
-      <c r="L6">
-        <v>61</v>
-      </c>
-      <c r="M6">
-        <v>61</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>0.8828125</v>
-      </c>
-      <c r="L7">
-        <v>113</v>
-      </c>
-      <c r="M7">
-        <v>113</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>570</v>
-      </c>
-      <c r="M8">
-        <v>570</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="B9">
+        <v>0.1649484536082474</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>0.03</v>
+      </c>
+      <c r="F9">
+        <v>0.97</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>162</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8409090909090909</v>
+        <v>0.7705627705627706</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,12 +1082,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.7662337662337663</v>
@@ -1026,16 +1113,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7491525423728813</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L11">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7445887445887446</v>
+        <v>0.7525423728813559</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="M12">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.734375</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7333333333333333</v>
+        <v>0.6886035313001605</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>858</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>858</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,15 +1238,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6857142857142857</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L16">
         <v>48</v>
@@ -1177,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6755020080321286</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L17">
-        <v>841</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>842</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,24 +1287,24 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>404</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.647887323943662</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6470588235294118</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6461538461538462</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6346153846153846</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L21">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1307,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6301369863013698</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6122448979591837</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1359,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6031746031746031</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6029411764705882</v>
+        <v>0.6107784431137725</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1411,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L26">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5903614457831325</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5802469135802469</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5789473684210527</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.562874251497006</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L30">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="M30">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5409836065573771</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5338345864661654</v>
+        <v>0.53</v>
       </c>
       <c r="L34">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1645,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5299145299145299</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L35">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M35">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1671,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5161290322580645</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1697,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1723,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4868421052631579</v>
+        <v>0.4552529182879377</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1749,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.4852941176470588</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1775,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4833333333333333</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1801,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4819277108433735</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L41">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M41">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1827,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.45</v>
+        <v>0.4150684931506849</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1853,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>55</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4436274509803921</v>
+        <v>0.3884892086330936</v>
       </c>
       <c r="L43">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="M43">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1879,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>227</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4396887159533074</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L44">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1905,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>144</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4178082191780822</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L45">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1931,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>425</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.3642384105960265</v>
+      </c>
+      <c r="L46">
         <v>55</v>
       </c>
-      <c r="K46">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="L46">
-        <v>45</v>
-      </c>
       <c r="M46">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1957,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.4047619047619048</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1983,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.381294964028777</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L48">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M48">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2009,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.3779904306220095</v>
+        <v>0.331896551724138</v>
       </c>
       <c r="L49">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="M49">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2032,50 +2119,50 @@
         <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>130</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3693693693693694</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.3684210526315789</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2087,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3663366336633663</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2113,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3518518518518519</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L53">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="M53">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2139,47 +2226,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>70</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3509933774834437</v>
+        <v>0.28</v>
       </c>
       <c r="L54">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="M54">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>98</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.341227125941873</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L55">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2191,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>612</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3221476510067114</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L56">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M56">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2217,151 +2304,151 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3035714285714285</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>78</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.2991452991452991</v>
+        <v>0.2384823848238482</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>82</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.291025641025641</v>
+        <v>0.2361623616236162</v>
       </c>
       <c r="L59">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="M59">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>553</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.2868852459016393</v>
+        <v>0.2331288343558282</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M60">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.274390243902439</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L61">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M61">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>119</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.2728476821192053</v>
+        <v>0.2227272727272727</v>
       </c>
       <c r="L62">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="M62">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2373,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>549</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2601880877742947</v>
+        <v>0.2213740458015267</v>
       </c>
       <c r="L63">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2399,125 +2486,125 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>236</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2583025830258303</v>
+        <v>0.2177033492822966</v>
       </c>
       <c r="L64">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M64">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>201</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2456140350877193</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="L65">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>344</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2421875</v>
+        <v>0.2103448275862069</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M66">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>97</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2297297297297297</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L67">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="N67">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>285</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2128712871287129</v>
+        <v>0.19559902200489</v>
       </c>
       <c r="L68">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="M68">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="N68">
         <v>0.98</v>
@@ -2529,99 +2616,99 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>159</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2068181818181818</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L69">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="M69">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>349</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2058823529411765</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L70">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M70">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>189</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2049689440993789</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L71">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1970260223048327</v>
+        <v>0.1740890688259109</v>
       </c>
       <c r="L72">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M72">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N72">
         <v>0.98</v>
@@ -2633,21 +2720,21 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1923076923076923</v>
+        <v>0.1638655462184874</v>
       </c>
       <c r="L73">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2659,203 +2746,203 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>126</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1886792452830189</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="L74">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M74">
         <v>31</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.1885441527446301</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="L75">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M75">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1691176470588235</v>
+        <v>0.1347053320860618</v>
       </c>
       <c r="L76">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="M76">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>339</v>
+        <v>925</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1649484536082474</v>
+        <v>0.1195965417867435</v>
       </c>
       <c r="L77">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M77">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>243</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1565934065934066</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L78">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>307</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1449275362318841</v>
+        <v>0.1027216856892011</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>177</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1411290322580645</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="L80">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M80">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>213</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1282420749279539</v>
+        <v>0.09814814814814815</v>
       </c>
       <c r="L81">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="M81">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="N81">
         <v>0.96</v>
@@ -2867,293 +2954,111 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>605</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1231203007518797</v>
+        <v>0.09768637532133675</v>
       </c>
       <c r="L82">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="M82">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>933</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.115979381443299</v>
+        <v>0.08011049723756906</v>
       </c>
       <c r="L83">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M83">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N83">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="O83">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1139705882352941</v>
+        <v>0.06693440428380187</v>
       </c>
       <c r="L84">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M84">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>241</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.1053604436229205</v>
+        <v>0.0440771349862259</v>
       </c>
       <c r="L85">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M85">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N85">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="O85">
-        <v>0.02000000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K86">
-        <v>0.1046831955922865</v>
-      </c>
-      <c r="L86">
-        <v>38</v>
-      </c>
-      <c r="M86">
-        <v>40</v>
-      </c>
-      <c r="N86">
-        <v>0.95</v>
-      </c>
-      <c r="O86">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K87">
-        <v>0.1041119860017498</v>
-      </c>
-      <c r="L87">
-        <v>119</v>
-      </c>
-      <c r="M87">
-        <v>133</v>
-      </c>
-      <c r="N87">
-        <v>0.89</v>
-      </c>
-      <c r="O87">
-        <v>0.11</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K88">
-        <v>0.1002444987775061</v>
-      </c>
-      <c r="L88">
-        <v>41</v>
-      </c>
-      <c r="M88">
-        <v>46</v>
-      </c>
-      <c r="N88">
-        <v>0.89</v>
-      </c>
-      <c r="O88">
-        <v>0.11</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K89">
-        <v>0.0945945945945946</v>
-      </c>
-      <c r="L89">
-        <v>49</v>
-      </c>
-      <c r="M89">
-        <v>53</v>
-      </c>
-      <c r="N89">
-        <v>0.92</v>
-      </c>
-      <c r="O89">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K90">
-        <v>0.08055555555555556</v>
-      </c>
-      <c r="L90">
-        <v>29</v>
-      </c>
-      <c r="M90">
-        <v>40</v>
-      </c>
-      <c r="N90">
-        <v>0.72</v>
-      </c>
-      <c r="O90">
-        <v>0.28</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K91">
-        <v>0.06657789613848203</v>
-      </c>
-      <c r="L91">
-        <v>50</v>
-      </c>
-      <c r="M91">
-        <v>66</v>
-      </c>
-      <c r="N91">
-        <v>0.76</v>
-      </c>
-      <c r="O91">
-        <v>0.24</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K92">
-        <v>0.04551724137931035</v>
-      </c>
-      <c r="L92">
-        <v>33</v>
-      </c>
-      <c r="M92">
-        <v>43</v>
-      </c>
-      <c r="N92">
-        <v>0.77</v>
-      </c>
-      <c r="O92">
-        <v>0.23</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
